--- a/seating_chart.xlsx
+++ b/seating_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\basecode\프로젝트\신학자리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD05E74-E124-49A3-AE42-13779EBD132E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1852987-17BA-4383-B88C-FEC6D5AB6EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{27898A21-5539-4876-A283-2E2074138CFA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="좌석" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">좌석!$A$1:$S$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">좌석!$A$1:$S$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -850,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4CA101-A82D-497B-BAC9-573EE2B59359}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -2262,7 +2262,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="4">
-        <f>B27+1</f>
+        <f t="shared" ref="C27:C32" si="14">B27+1</f>
         <v>39</v>
       </c>
       <c r="D27" s="3"/>
@@ -2291,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="4">
-        <f>B28+1</f>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="D28" s="3"/>
@@ -2320,7 +2320,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="4">
-        <f>B29+1</f>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="D29" s="3"/>
@@ -2339,6 +2339,45 @@
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
       <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <f>C29+1</f>
+        <v>44</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="14"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <f>C30+1</f>
+        <v>46</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="14"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <f>C31+1</f>
+        <v>48</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/seating_chart.xlsx
+++ b/seating_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\basecode\프로젝트\신학자리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1852987-17BA-4383-B88C-FEC6D5AB6EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A4BA12-800D-4744-BDB8-F07FB51DE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{27898A21-5539-4876-A283-2E2074138CFA}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -1131,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" ref="F7:G19" si="3">F7+1</f>
+        <f t="shared" ref="F7:G20" si="3">F7+1</f>
         <v>31</v>
       </c>
       <c r="H7" s="5"/>
@@ -1916,7 +1916,10 @@
         <f>S19+1</f>
         <v>169</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="14">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="7">
         <f>F20+1</f>
@@ -1971,46 +1974,49 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="7">
+        <f>S20+1</f>
+        <v>179</v>
+      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="15"/>
       <c r="I21" s="7">
-        <f>S20+1</f>
-        <v>179</v>
+        <f>F21+1</f>
+        <v>180</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ref="J21:K25" si="11">I21+1</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="11"/>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="7">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" ref="N21:O25" si="12">M21+1</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="12"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="7">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S21" s="7">
         <f t="shared" si="8"/>
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="29.25" customHeight="1">
@@ -2032,41 +2038,41 @@
       <c r="H22" s="15"/>
       <c r="I22" s="7">
         <f>S21+1</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="11"/>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="11"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="7">
         <f t="shared" si="7"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="12"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="7">
         <f t="shared" si="12"/>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="7">
         <f t="shared" si="9"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="8"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="29.25" customHeight="1">
@@ -2088,37 +2094,37 @@
       <c r="H23" s="5"/>
       <c r="I23" s="7">
         <f>S22+1</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="11"/>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="11"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="7">
         <f t="shared" si="7"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="12"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" s="7">
         <f t="shared" si="12"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="7">
         <f t="shared" si="9"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R23" s="7">
         <f>Q23+1</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>5</v>
@@ -2140,41 +2146,41 @@
       <c r="H24" s="5"/>
       <c r="I24" s="7">
         <f>R23+1</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="11"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="11"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="7">
         <f>K24+1</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="12"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="12"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="7">
         <f t="shared" si="9"/>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R24" s="7">
         <f>Q24+1</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S24" s="7">
         <f>R24+1</f>
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="29.25" customHeight="1">
@@ -2194,37 +2200,37 @@
       <c r="I25" s="28"/>
       <c r="J25" s="7">
         <f>S24+1</f>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="11"/>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="7">
         <f>K25+1</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="12"/>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="12"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="7">
         <f t="shared" si="9"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R25" s="7">
         <f>Q25+1</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S25" s="7">
         <f>R25+1</f>
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="29.25" customHeight="1" thickBot="1">
@@ -2249,8 +2255,14 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
+      <c r="Q26" s="7">
+        <f>S25+1</f>
+        <v>223</v>
+      </c>
+      <c r="R26" s="7">
+        <f>Q26+1</f>
+        <v>224</v>
+      </c>
       <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:19" ht="29.25" customHeight="1">

--- a/seating_chart.xlsx
+++ b/seating_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\basecode\프로젝트\신학자리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A4BA12-800D-4744-BDB8-F07FB51DE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB3977-3E1C-4412-B7AC-AA68AF71D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{27898A21-5539-4876-A283-2E2074138CFA}"/>
   </bookViews>
@@ -853,7 +853,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -1922,42 +1922,42 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="7">
-        <f>F20+1</f>
-        <v>170</v>
+        <f>G20+1</f>
+        <v>171</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="7">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O20" s="7">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="7">
         <f t="shared" si="9"/>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S20" s="7">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="29.25" customHeight="1">
@@ -1976,47 +1976,47 @@
       <c r="E21" s="10"/>
       <c r="F21" s="7">
         <f>S20+1</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="15"/>
       <c r="I21" s="7">
         <f>F21+1</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ref="J21:K25" si="11">I21+1</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="11"/>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="7">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N21" s="7">
         <f t="shared" ref="N21:O25" si="12">M21+1</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="12"/>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="7">
         <f t="shared" si="9"/>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S21" s="7">
         <f t="shared" si="8"/>
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="29.25" customHeight="1">
@@ -2038,41 +2038,41 @@
       <c r="H22" s="15"/>
       <c r="I22" s="7">
         <f>S21+1</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="11"/>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="11"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="7">
         <f t="shared" si="7"/>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" s="7">
         <f t="shared" si="12"/>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" s="7">
         <f t="shared" si="12"/>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="7">
         <f t="shared" si="9"/>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S22" s="7">
         <f t="shared" si="8"/>
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="29.25" customHeight="1">
@@ -2094,37 +2094,37 @@
       <c r="H23" s="5"/>
       <c r="I23" s="7">
         <f>S22+1</f>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="11"/>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="7">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N23" s="7">
         <f t="shared" si="12"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O23" s="7">
         <f t="shared" si="12"/>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="7">
         <f t="shared" si="9"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R23" s="7">
         <f>Q23+1</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>5</v>
@@ -2146,41 +2146,41 @@
       <c r="H24" s="5"/>
       <c r="I24" s="7">
         <f>R23+1</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="11"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="11"/>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="7">
         <f>K24+1</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="12"/>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="12"/>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="7">
         <f t="shared" si="9"/>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R24" s="7">
         <f>Q24+1</f>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S24" s="7">
         <f>R24+1</f>
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="29.25" customHeight="1">
@@ -2200,37 +2200,37 @@
       <c r="I25" s="28"/>
       <c r="J25" s="7">
         <f>S24+1</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="11"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="7">
         <f>K25+1</f>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="12"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="12"/>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="7">
         <f t="shared" si="9"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R25" s="7">
         <f>Q25+1</f>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S25" s="7">
         <f>R25+1</f>
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="29.25" customHeight="1" thickBot="1">
@@ -2257,11 +2257,11 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="7">
         <f>S25+1</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R26" s="7">
         <f>Q26+1</f>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S26" s="18"/>
     </row>
